--- a/training_candidates.xlsx
+++ b/training_candidates.xlsx
@@ -16474,12 +16474,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>New Associates</t>
+          <t>Litigation</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>New Associates - Litigation</t>
+          <t>Global Commercial Disputes</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
